--- a/data/trans_bre/P16A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>656,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>319,26%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,38; 2,37</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,77</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 3,11</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 7,39</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>244,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,45%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 1,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,34; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 1,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,43; 465,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 336,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,41; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,07; 2215,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,19%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 2,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 3,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,38; 351,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,53; 339,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 852,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,49; 176,56</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,08%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 4,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 5,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,67; 7,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,04; 505,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,46; 393,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,79; 317,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,03; 223,92</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,81</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>151,92%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>228,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>260,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>116,64%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,24; 6,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 8,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,82; 13,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,68; 11,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,52; 487,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,29; 661,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>99,41; 568,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,18; 221,76</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,74</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>275,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,32%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 6,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,1; 14,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 12,17</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 11,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 135,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>134,07; 520,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,15; 188,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,59; 106,52</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>110,03%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>183,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,58%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,39; 3,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 5,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 5,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,82; 6,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,81; 182,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>127,29; 316,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>122,72; 266,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,41; 135,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>319,26%</t>
+          <t>275,97%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 7,39</t>
+          <t>-0,52; 6,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>135,45%</t>
+          <t>112,18%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 2,62</t>
+          <t>-0,59; 2,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-72,07; 2215,75</t>
+          <t>-68,95; 2031,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>47,38%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 3,17</t>
+          <t>-1,1; 3,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 176,56</t>
+          <t>-27,14; 184,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>138,11%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,58</t>
+          <t>1,92; 8,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,03; 223,92</t>
+          <t>33,05; 459,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,81</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>116,64%</t>
+          <t>114,78%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,68; 11,16</t>
+          <t>4,7; 11,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>55,18; 221,76</t>
+          <t>53,38; 220,32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,24</t>
+          <t>8,2</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>53,42%</t>
+          <t>77,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>275,28%</t>
+          <t>249,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>112,7%</t>
+          <t>143,8%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>22,05%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,24; 6,48</t>
+          <t>0,26; 7,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,1; 14,6</t>
+          <t>4,32; 12,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,07; 12,17</t>
+          <t>5,77; 15,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 11,25</t>
+          <t>-4,88; 8,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,9; 135,97</t>
+          <t>-0,66; 212,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>134,07; 520,07</t>
+          <t>66,04; 690,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>52,15; 188,61</t>
+          <t>51,97; 279,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>13,59; 106,52</t>
+          <t>-49,2; 104,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,24</t>
+          <t>13,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,87</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>110,03%</t>
+          <t>29,37%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>206,99%</t>
+          <t>271,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>183,47%</t>
+          <t>82,74%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>70,69%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,79; 7,46</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8,75; 18,66</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 12,67</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,79; 16,05</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-26,2; 141,54</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>111,14; 650,85</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,86; 198,93</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 121,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,24</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,87</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,99</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>110,03%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>206,99%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>183,47%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>102,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>1,39; 3,04</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,22; 5,19</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,83; 5,94</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>3,82; 6,48</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 6,46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>59,81; 182,67</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>127,29; 316,8</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>122,72; 266,97</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>64,41; 135,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>61,31; 154,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16A06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,37</t>
+          <t>0,42; 2,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,77</t>
+          <t>0,28; 2,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,25; 3,11</t>
+          <t>0,43; 2,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,75</t>
+          <t>-0,2; 7,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,65</t>
+          <t>-0,49; 1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 1,25</t>
+          <t>-1,33; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,99</t>
+          <t>-0,03; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,39</t>
+          <t>-0,55; 2,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,43; 465,93</t>
+          <t>-60,88; 509,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 336,91</t>
+          <t>-100,0; 339,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-51,41; —</t>
+          <t>-55,18; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 2031,78</t>
+          <t>-69,33; 1801,66</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,45</t>
+          <t>-0,52; 2,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,29</t>
+          <t>0,03; 4,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,86</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,26</t>
+          <t>-0,87; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,38; 351,11</t>
+          <t>-29,47; 332,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 339,7</t>
+          <t>-5,83; 302,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,09; 852,49</t>
+          <t>-17,83; 772,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,14; 184,07</t>
+          <t>-23,26; 214,04</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 4,46</t>
+          <t>0,08; 4,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,66</t>
+          <t>0,6; 5,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,36</t>
+          <t>1,55; 6,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 8,35</t>
+          <t>1,97; 8,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 505,52</t>
+          <t>-14,11; 365,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 393,14</t>
+          <t>7,17; 376,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,79; 317,26</t>
+          <t>37,48; 330,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,05; 459,39</t>
+          <t>38,13; 485,13</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,91</t>
+          <t>1,02; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,46; 8,37</t>
+          <t>2,51; 8,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,43</t>
+          <t>6,0; 13,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,7; 11,14</t>
+          <t>4,79; 10,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 487,21</t>
+          <t>18,47; 487,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>50,29; 661,4</t>
+          <t>58,62; 613,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>99,41; 568,81</t>
+          <t>112,84; 627,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>53,38; 220,32</t>
+          <t>53,02; 193,66</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 7,58</t>
+          <t>0,37; 7,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,32; 12,54</t>
+          <t>4,69; 12,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,77; 15,22</t>
+          <t>5,81; 15,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 8,38</t>
+          <t>-5,02; 8,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 212,97</t>
+          <t>-3,95; 218,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>66,04; 690,64</t>
+          <t>77,07; 733,44</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>51,97; 279,71</t>
+          <t>60,97; 291,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,2; 104,79</t>
+          <t>-48,78; 102,36</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 7,46</t>
+          <t>-3,29; 6,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,75; 18,66</t>
+          <t>8,66; 18,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,67</t>
+          <t>2,07; 12,54</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,79; 16,05</t>
+          <t>6,56; 15,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,2; 141,54</t>
+          <t>-29,8; 128,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>111,14; 650,85</t>
+          <t>112,14; 617,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 198,93</t>
+          <t>17,14; 211,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>36,14; 121,62</t>
+          <t>35,55; 120,9</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,04</t>
+          <t>1,33; 3,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,19</t>
+          <t>3,19; 5,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,94</t>
+          <t>3,81; 5,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,46</t>
+          <t>3,35; 6,54</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>59,81; 182,67</t>
+          <t>58,98; 192,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>127,29; 316,8</t>
+          <t>124,9; 305,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>122,72; 266,97</t>
+          <t>123,51; 268,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>61,31; 154,72</t>
+          <t>62,99; 158,24</t>
         </is>
       </c>
     </row>
